--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040011</t>
+          <t>004263</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安核心混合</t>
+          <t>华安沪港深机会灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>45.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>040011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>华安核心混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004263</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安沪港深机会灵活配置混合</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.80</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.59</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.21</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.53</v>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.29</v>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.21</v>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1737,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1859,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1875,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>45.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2139</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004856</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4082</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D4" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>040011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安核心混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3674</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006768</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安沪港深优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D6" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>86.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2749</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -791,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>005607</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>华宝中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1459</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -829,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>005608</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>华宝中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1135</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>45.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0796</t>
+          <t>0.9165</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +847,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.2152</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,36 +1415,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.75</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.10</t>
+          <t>95.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9165</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1339,264 +1453,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>95.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2152</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0601</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002670</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0412</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002671</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.54</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1661,36 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.91</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.2749</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1699,36 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005607</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强A</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.1459</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1737,36 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005608</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强C</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.1135</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1780,128 +1666,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.15</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.15</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1358,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1490,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000877-天山股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.29</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.15</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>015061</t>
+          <t>012419</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投沪深300指数增强A</t>
+          <t>天弘国证建材指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015062</t>
+          <t>012405</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投沪深300指数增强C</t>
+          <t>天弘国证建材指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1507,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,7 +1788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
